--- a/tests/fake_data/combined_scp_ch_fake.xlsx
+++ b/tests/fake_data/combined_scp_ch_fake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eschdata\Strategic_Resourcing_CS$\Performance Improvement Team\Data to Insight\Will\903data\SCP CH data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F684F45-CD7A-4AAB-B879-6CC6389E123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FDA273-21CA-447A-B150-4F3DC04E2446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A5F04AB-1BB0-4216-8944-3B82FE5BB4B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3A5F04AB-1BB0-4216-8944-3B82FE5BB4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,38 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
-  <si>
-    <t>Local authority</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
   <si>
     <t>URN</t>
   </si>
   <si>
-    <t>Provider type</t>
-  </si>
-  <si>
-    <t>Provider subtype</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
-    <t>Setting name</t>
-  </si>
-  <si>
-    <t>Registration date</t>
-  </si>
-  <si>
-    <t>Registration status</t>
-  </si>
-  <si>
-    <t>Deregistration date</t>
-  </si>
-  <si>
-    <t>Placement code</t>
-  </si>
-  <si>
     <t>Setting address line 1</t>
   </si>
   <si>
@@ -80,9 +56,6 @@
     <t>Setting address county</t>
   </si>
   <si>
-    <t>Setting address postcode</t>
-  </si>
-  <si>
     <t>Setting telephone number</t>
   </si>
   <si>
@@ -116,9 +89,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Placement provider code</t>
-  </si>
-  <si>
     <t>Date of last full inspection</t>
   </si>
   <si>
@@ -390,6 +360,33 @@
   </si>
   <si>
     <t>Not every child even likes horses, stop forcing the issue</t>
+  </si>
+  <si>
+    <t>Provider Type</t>
+  </si>
+  <si>
+    <t>Provider Subtype</t>
+  </si>
+  <si>
+    <t>Setting Name</t>
+  </si>
+  <si>
+    <t>Registration Date</t>
+  </si>
+  <si>
+    <t>Registration Status</t>
+  </si>
+  <si>
+    <t>Deregistration Date</t>
+  </si>
+  <si>
+    <t>Placement Provider Code</t>
+  </si>
+  <si>
+    <t>Placement Code</t>
+  </si>
+  <si>
+    <t>Setting Address Postcode</t>
   </si>
 </sst>
 </file>
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35611A48-C5C6-451F-98C3-A6208E162367}">
   <dimension ref="A1:CV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,145 +822,145 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
@@ -1021,102 +1018,102 @@
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3">
         <v>44321</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2">
         <v>1234567</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK2" s="2">
         <v>300</v>
@@ -1131,7 +1128,7 @@
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -1189,102 +1186,102 @@
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3">
         <v>44197</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2">
         <v>2134567</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -1297,7 +1294,7 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
@@ -1355,110 +1352,110 @@
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G4" s="3">
         <v>34319</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="S4" s="2">
         <v>3124567</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="3">
         <v>44927</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG4" s="3">
         <v>44959</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AI4" s="3">
         <v>44988</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AK4" s="2">
         <v>6</v>
@@ -1487,7 +1484,7 @@
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
@@ -1545,108 +1542,108 @@
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3">
         <v>41275</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="S5" s="2">
         <v>4123567</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AB5" s="3">
         <v>44928</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG5" s="3">
         <v>44960</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="AK5" s="2">
         <v>12</v>
@@ -1675,7 +1672,7 @@
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>

--- a/tests/fake_data/combined_scp_ch_fake.xlsx
+++ b/tests/fake_data/combined_scp_ch_fake.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eschdata\Strategic_Resourcing_CS$\Performance Improvement Team\Data to Insight\Will\903data\SCP CH data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FDA273-21CA-447A-B150-4F3DC04E2446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A968D679-B49D-4E5C-B9D6-07C24AA48390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3A5F04AB-1BB0-4216-8944-3B82FE5BB4B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3A5F04AB-1BB0-4216-8944-3B82FE5BB4B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Providers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -772,7 +772,7 @@
   <dimension ref="A1:CV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
